--- a/FoundData/ChinaDataInvestigation.xlsx
+++ b/FoundData/ChinaDataInvestigation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GBAD/Data Quality Insights Project Folder/GBADsDataQualityInsights/FoundData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381B8D37-8EC5-7345-B1D4-F98FCC1AC310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C7F187-FA95-D640-9222-DA27506E56B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{8C965A85-86CE-564E-9078-3B0EE36C5AC5}"/>
   </bookViews>
@@ -230,21 +230,12 @@
     <t>1961-1962</t>
   </si>
   <si>
-    <t xml:space="preserve">Between 1958 and 1962, China implemented the Second Five-Year Plan. The goal for this five-year plan amongst other goals was to increase agriculture output. The offical Chinese government website states the output grew by 270% over the 5 years. While this number is not high, it does not differentiate livestock growth from growth crop cultivation. However, for all four studied species, we see relatively small growth or declining populations. We would expect there to be more growth given the stated 270% increase in agriculture output over this time. </t>
-  </si>
-  <si>
     <t>http://www.china.org.cn/english/MATERIAL/157606.htm</t>
   </si>
   <si>
     <t>Sheep, Cows, Pigs</t>
   </si>
   <si>
-    <t>The great leap forward, occuring from 1949-1961 had a big push to increase agricultre output. It was mostly a success but bad weather in the late 1950s into 1962 resulted in reduced crops and as a result, people at more of their livestock and livestock died from lack of food. As a result, we would expect to see a decreasing livestock population between 1961 and 1962 which we see.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The great leap forward, occuring from 1949-1961 had a big push to increase agricultre output. It was mostly a success but bad weather in the late 1950s into 1962 resulted in reduced crops and as a result, people at more of their livestock and livestock died from lack of food. As a result, we would expect to see a decreasing livestock population between 1961 and 1962, however, the chicken population actually increases between these years. </t>
-  </si>
-  <si>
     <t>DEVELOPMENTS IN AGRICULTURE IN THE PEOPLE'S REPUBLIC OF CHINA, https://www-jstor-org.subzero.lib.uoguelph.ca/stable/43898276?seq=5</t>
   </si>
   <si>
@@ -254,42 +245,27 @@
     <t>2017-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">During 2018 and 2019, African Swine Flever broke out in China. This extremely viral, uncurable virus infects pigs and farmers/government will quickly cull the entire production to reduce the risk of it spreading to the environment or other farms. Given the outbreak this years, we should see an impact in the FAOSTAT numbers and we see that with a dramatic decrease in hogs in this year. </t>
-  </si>
-  <si>
     <t>https://www.reuters.com/world/china/chinas-pig-farms-battle-new-surge-african-swine-fever-2023-03-15/, https://www.nature.com/articles/s43016-021-00362-1</t>
   </si>
   <si>
     <t>1996-1999</t>
   </si>
   <si>
-    <t>H1N1, or the Avian Flu first emerged in China in 1996. This virus kills a proportionally high amount of birds but very few people. When it was novel, governments were unequiped to handle it and where unsure of what to do. They figured out it was best to cull the entire flock to minimize the chance that it spreads to other groups of chickens. As a result, when the first outbreak occured in China, we would expect to see a large drop in population while the government slowly figured out how to handle contageon. In 1998 we see a large drop in population. This would make sense as it was during the outbreak of the dieases.</t>
-  </si>
-  <si>
     <t>https://www.ecdc.europa.eu/en/avian-influenza-humans/facts#:~:text=The%20avian%20influenza%20virus%20A,remains%20poorly%20adapted%20to%20humans.</t>
   </si>
   <si>
     <t>Chickens, Cows, Pigs</t>
   </si>
   <si>
-    <t>In 2013, China experienced a record heat wave over the southern part of the country. Multiple providences and cities set record temportatures. Given the heatwave was long and hot, we would expect to see it impact the livestock because livestock are kept outside or in barns and often cannot handle the tempatures. FAOSTAT shows a slight dip for cattle, pigs, and chickens which makes sense given most of the livestock production occurs in the south eastern portion of the country.</t>
-  </si>
-  <si>
     <t>https://earthobservatory.nasa.gov/images/81870/heat-wave-in-china#:~:text=For%20the%20entire%20month%20of,set%20on%20August%207%2C%202013.</t>
   </si>
   <si>
     <t>Cattle, Pigs</t>
   </si>
   <si>
-    <t xml:space="preserve">In 2009 and 2010, there was a severe drought in a handfull of provinces in China. It was the worst in over a century. These provinces relied on the water to grow crops and give their livestock to drink. Given the severity we would expect to see the impact on the livestock populations and FAOSTAT shows this. </t>
-  </si>
-  <si>
     <t>2006-2007</t>
   </si>
   <si>
-    <t xml:space="preserve">In 2006, Southwest China and Sichuan had a very severe drought which at the time recorded record temporatures and record drought severity. Given that livestock production is big in this area of China we would expect to see the large species more suseptable to this weather and show a decrease in the population. FAOSTAT shows a drop in the population for these years. </t>
-  </si>
-  <si>
     <t>https://factsanddetails.com/china/cat10/sub64/item1879.html</t>
   </si>
   <si>
@@ -297,6 +273,30 @@
   </si>
   <si>
     <t>In 2009 and 2010, China faced another drought. Wells dried up, soil was too dry to plant crops, and the government had to take emergency action just to get water to the citizens living there. This means they would have diverted water away from livestock to keep themselves alive. As a result, we should see a drop in the livestock numbers for this year for large animals. FAOSTAT shows a drop in pigs and cattle which makes sense given the weather these years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between 1958 and 1962, China implemented the Second Five-Year Plan. The goal for this five-year plan amongst other goals was to increase agriculture output. The official Chinese government website states the output grew by 270% over the 5 years. While this number is not high, it does not differentiate livestock growth from growth crop cultivation. However, for all four studied species, we see relatively small growth or declining populations. We would expect there to be more growth given the stated 270% increase in agriculture output over this time. </t>
+  </si>
+  <si>
+    <t>The great leap forward, occurring from 1949-1961 had a big push to increase agriculture output. It was mostly a success but bad weather in the late 1950s into 1962 resulted in reduced crops and as a result, people at more of their livestock and livestock died from lack of food. As a result, we would expect to see a decreasing livestock population between 1961 and 1962 which we see.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The great leap forward, occurring from 1949-1961 had a big push to increase agriculture output. It was mostly a success but bad weather in the late 1950s into 1962 resulted in reduced crops and as a result, people at more of their livestock and livestock died from lack of food. As a result, we would expect to see a decreasing livestock population between 1961 and 1962, however, the chicken population actually increases between these years. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">During 2018 and 2019, African Swine Fever broke out in China. This extremely viral, uncurable virus infects pigs and farmers/government will quickly cull the entire production to reduce the risk of it spreading to the environment or other farms. Given the outbreak this years, we should see an impact in the FAOSTAT numbers and we see that with a dramatic decrease in hogs in this year. </t>
+  </si>
+  <si>
+    <t>H1N1, or the Avian Flu first emerged in China in 1996. This virus kills a proportionally high amount of birds but very few people. When it was novel, governments were unequipped to handle it and where unsure of what to do. They figured out it was best to cull the entire flock to minimize the chance that it spreads to other groups of chickens. As a result, when the first outbreak occurred in China, we would expect to see a large drop in population while the government slowly figured out how to handle contagion. In 1998 we see a large drop in population. This would make sense as it was during the outbreak of the diseases.</t>
+  </si>
+  <si>
+    <t>In 2013, China experienced a record heat wave over the southern part of the country. Multiple providences and cities set record temperatures. Given the heatwave was long and hot, we would expect to see it impact the livestock because livestock are kept outside or in barns and often cannot handle the temperatures. FAOSTAT shows a slight dip for cattle, pigs, and chickens which makes sense given most of the livestock production occurs in the south eastern portion of the country.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2009 and 2010, there was a severe drought in a handful of provinces in China. It was the worst in over a century. These provinces relied on the water to grow crops and give their livestock to drink. Given the severity we would expect to see the impact on the livestock populations and FAOSTAT shows this. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2006, Southwest China and Sichuan had a very severe drought which at the time recorded record temperatures and record drought severity. Given that livestock production is big in this area of China we would expect to see the large species more susceptible to this weather and show a decrease in the population. FAOSTAT shows a drop in the population for these years. </t>
   </si>
 </sst>
 </file>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D03BD7-9176-E142-8C26-5DF7D55019DD}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="156" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="156" workbookViewId="0">
+      <selection activeCell="F49" sqref="A1:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1651,10 +1651,10 @@
         <v>3</v>
       </c>
       <c r="F42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" t="s">
         <v>64</v>
-      </c>
-      <c r="G42" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1662,7 +1662,7 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
         <v>63</v>
@@ -1674,10 +1674,10 @@
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1697,10 +1697,10 @@
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1711,7 +1711,7 @@
         <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -1720,10 +1720,10 @@
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1734,7 +1734,7 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -1743,10 +1743,10 @@
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1754,7 +1754,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C47">
         <v>2013</v>
@@ -1766,10 +1766,10 @@
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1777,7 +1777,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C48">
         <v>2010</v>
@@ -1789,10 +1789,10 @@
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1800,10 +1800,10 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -1812,10 +1812,10 @@
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1823,10 +1823,10 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -1835,10 +1835,10 @@
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
